--- a/log_history/Y2_B2526_Pharmacology_scanner1758620029132_4def9dec8be0c4e4044281586d4dc15ba43434ebc05630802a41912664f448dd.xlsx
+++ b/log_history/Y2_B2526_Pharmacology_scanner1758620029132_4def9dec8be0c4e4044281586d4dc15ba43434ebc05630802a41912664f448dd.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Session" sheetId="1" r:id="rId1"/>
+    <sheet name="Pharmacology" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
